--- a/excel_files/inflation_data_1excel.xlsx
+++ b/excel_files/inflation_data_1excel.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD8C3AA-0555-4879-AC82-FD27B4846168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="inflation_data" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="inflation_data"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Month</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Inflation</t>
@@ -31,12 +25,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +40,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,35 +77,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{87FBCEFC-9D1F-4267-A495-4D67B4F3ECEA}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -117,10 +119,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -158,71 +160,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -250,7 +252,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -273,11 +275,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -286,13 +288,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -302,7 +304,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -311,7 +313,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -320,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,10 +330,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -396,23 +398,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,3003 +420,3003 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="3">
         <v>33242</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>11.57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="3">
         <v>33243</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>11.76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="3">
         <v>33244</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>12.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3">
         <v>33245</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>13.11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="3">
         <v>33246</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>16.09</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="3">
         <v>33247</v>
       </c>
-      <c r="B7" s="3">
-        <v>16.309999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="B7" s="4">
+        <v>16.31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="3">
         <v>33248</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>14.68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="3">
         <v>33249</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>14.75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="3">
         <v>33250</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>14.26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="3">
         <v>33604</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>13.55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="3">
         <v>33605</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>12.94</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="3">
         <v>33606</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>13.56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="3">
         <v>33607</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>13.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="3">
         <v>33608</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>13.76</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="3">
         <v>33609</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>12.95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="3">
         <v>33610</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>11.74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="3">
         <v>33611</v>
       </c>
-      <c r="B18" s="3">
-        <v>9.3699999999999992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
+      <c r="B18" s="4">
+        <v>9.37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="3">
         <v>33612</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>9.65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="3">
         <v>33613</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>10.56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="3">
         <v>33614</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>9.09</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="3">
         <v>33615</v>
       </c>
-      <c r="B22" s="3">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="B22" s="4">
+        <v>8.54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="3">
         <v>33970</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>7.57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="3">
         <v>33971</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>7.58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="3">
         <v>33972</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>7.07</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="3">
         <v>33973</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>6.93</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="3">
         <v>33974</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>6.95</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="3">
         <v>33975</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>7.01</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="3">
         <v>33976</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>7.28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="3">
         <v>33977</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>7.95</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="3">
         <v>33978</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>8.76</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="3">
         <v>33979</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>8.52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="3">
         <v>33980</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>8.59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="3">
         <v>33981</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>8.77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="3">
         <v>34335</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>9.11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="3">
         <v>34336</v>
       </c>
-      <c r="B36" s="3">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
+      <c r="B36" s="4">
+        <v>9.45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="3">
         <v>34337</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>10.51</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="3">
         <v>34338</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>11.81</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="3">
         <v>34339</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>11.98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="3">
         <v>34340</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>11.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="3">
         <v>34341</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>11.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="3">
         <v>34342</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>10.16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="3">
         <v>34343</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>8.89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="3">
         <v>34344</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>8.92</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="3">
         <v>34345</v>
       </c>
-      <c r="B45" s="3">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="5">
+      <c r="B45" s="4">
+        <v>9.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="3">
         <v>34346</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>11.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="3">
         <v>34700</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>12.11</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="3">
         <v>34701</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>11.73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="3">
         <v>34702</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>10.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="3">
         <v>34703</v>
       </c>
-      <c r="B50" s="3">
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="5">
+      <c r="B50" s="4">
+        <v>9.95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="3">
         <v>34704</v>
       </c>
-      <c r="B51" s="3">
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="5">
+      <c r="B51" s="4">
+        <v>9.87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="3">
         <v>34705</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>9.14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="3">
         <v>34706</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>8.44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="3">
         <v>34707</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>8.82</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="3">
         <v>34708</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>8.86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="3">
         <v>34709</v>
       </c>
-      <c r="B56" s="3">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="5">
+      <c r="B56" s="4">
+        <v>8.45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="3">
         <v>34710</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>8.4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="3">
         <v>34711</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>6.36</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="3">
         <v>35065</v>
       </c>
-      <c r="B59" s="3">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="5">
+      <c r="B59" s="4">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="3">
         <v>35066</v>
       </c>
-      <c r="B60" s="3">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="5">
+      <c r="B60" s="4">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="3">
         <v>35067</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>5.09</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="3">
         <v>35068</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>4.99</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="3">
         <v>35069</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>4.49</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="3">
         <v>35070</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>4.55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="5">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="3">
         <v>35071</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>5.98</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="5">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="3">
         <v>35072</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>6.18</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="5">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="3">
         <v>35073</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>6.52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="5">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="3">
         <v>35074</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>6.58</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="5">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="3">
         <v>35075</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>6.55</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="5">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="3">
         <v>35076</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>7.52</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="5">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="3">
         <v>35431</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>7.53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="5">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="3">
         <v>35432</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>7.89</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="5">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="3">
         <v>35433</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>7.11</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="5">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="3">
         <v>35434</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>6.44</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="5">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="3">
         <v>35435</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>5.81</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="5">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+      <c r="A76" s="3">
         <v>35436</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>5.72</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="5">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="3">
         <v>35437</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>4.07</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="5">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="3">
         <v>35438</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>3.69</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="5">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+      <c r="A79" s="3">
         <v>35439</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>3.72</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="5">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="3">
         <v>35440</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>4.41</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="5">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="3">
         <v>35441</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>3.95</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="5">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="3">
         <v>35442</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>4.47</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="5">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="3">
         <v>35796</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>5.75</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="5">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="3">
         <v>35797</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>4.95</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="5">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="3">
         <v>35798</v>
       </c>
-      <c r="B85" s="3">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="5">
+      <c r="B85" s="4">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="3">
         <v>35799</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>5.65</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="5">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="A87" s="3">
         <v>35800</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>6.64</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="5">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="3">
         <v>35801</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>7.45</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="5">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="3">
         <v>35802</v>
       </c>
-      <c r="B89" s="3">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="5">
+      <c r="B89" s="4">
+        <v>8.29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="3">
         <v>35803</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>8.34</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="5">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="3">
         <v>35804</v>
       </c>
-      <c r="B91" s="3">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="5">
+      <c r="B91" s="4">
+        <v>8.55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="3">
         <v>35805</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>8.27</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="5">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="3">
         <v>35806</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>8.11</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="5">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="3">
         <v>35807</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>6.31</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="5">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="3">
         <v>36161</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>4.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="5">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="3">
         <v>36162</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>5.34</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="5">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="3">
         <v>36163</v>
       </c>
-      <c r="B97" s="3">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="5">
+      <c r="B97" s="4">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="3">
         <v>36164</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>4.32</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="5">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="A99" s="3">
         <v>36165</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>3.78</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="5">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+      <c r="A100" s="3">
         <v>36166</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>3.11</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="5">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="3">
         <v>36167</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>2.33</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="5">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="3">
         <v>36168</v>
       </c>
-      <c r="B102" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="5">
+      <c r="B102" s="4">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="A103" s="3">
         <v>36169</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>2.69</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="5">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="A104" s="3">
         <v>36170</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>2.93</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="5">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="A105" s="3">
         <v>36171</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>2.85</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="5">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="3">
         <v>36172</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>2.78</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="5">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="3">
         <v>36526</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>3.08</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="5">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+      <c r="A108" s="3">
         <v>36527</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>2.42</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="5">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+      <c r="A109" s="3">
         <v>36528</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>3.73</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="5">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+      <c r="A110" s="3">
         <v>36529</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>5.83</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="5">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+      <c r="A111" s="3">
         <v>36530</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>5.43</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="5">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+      <c r="A112" s="3">
         <v>36531</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>5.61</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="5">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+      <c r="A113" s="3">
         <v>36532</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="5">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+      <c r="A114" s="3">
         <v>36533</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>5.27</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="5">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+      <c r="A115" s="3">
         <v>36534</v>
       </c>
-      <c r="B115" s="3">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="5">
+      <c r="B115" s="4">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+      <c r="A116" s="3">
         <v>36535</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>5.92</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="5">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+      <c r="A117" s="3">
         <v>36536</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>6.32</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="5">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+      <c r="A118" s="3">
         <v>36537</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>7.49</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="5">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+      <c r="A119" s="3">
         <v>36892</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>7.67</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="5">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+      <c r="A120" s="3">
         <v>36893</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="5">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+      <c r="A121" s="3">
         <v>36894</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>7.45</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="5">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+      <c r="A122" s="3">
         <v>36895</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>5.41</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="5">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+      <c r="A123" s="3">
         <v>36896</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>5.6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="5">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+      <c r="A124" s="3">
         <v>36897</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>5.3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="5">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+      <c r="A125" s="3">
         <v>36898</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>5.23</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="5">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+      <c r="A126" s="3">
         <v>36899</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>5.41</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="5">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+      <c r="A127" s="3">
         <v>36900</v>
       </c>
-      <c r="B127" s="3">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="5">
+      <c r="B127" s="4">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+      <c r="A128" s="3">
         <v>36901</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>2.91</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="5">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+      <c r="A129" s="3">
         <v>36902</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>2.59</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="5">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+      <c r="A130" s="3">
         <v>36903</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>2.08</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="5">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+      <c r="A131" s="3">
         <v>37257</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>1.51</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="5">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+      <c r="A132" s="3">
         <v>37258</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>1.39</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="5">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+      <c r="A133" s="3">
         <v>37259</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>1.76</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="5">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+      <c r="A134" s="3">
         <v>37260</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="5">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+      <c r="A135" s="3">
         <v>37261</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>1.56</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="5">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+      <c r="A136" s="3">
         <v>37262</v>
       </c>
-      <c r="B136" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="5">
+      <c r="B136" s="4">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+      <c r="A137" s="3">
         <v>37263</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>2.79</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="5">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+      <c r="A138" s="3">
         <v>37264</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>3.34</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="5">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+      <c r="A139" s="3">
         <v>37265</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>3.53</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="5">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+      <c r="A140" s="3">
         <v>37266</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>3.08</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="5">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+      <c r="A141" s="3">
         <v>37267</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>3.39</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="5">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+      <c r="A142" s="3">
         <v>37268</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>3.34</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="5">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+      <c r="A143" s="3">
         <v>37622</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>4.22</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="5">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+      <c r="A144" s="3">
         <v>37623</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>5.35</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="5">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+      <c r="A145" s="3">
         <v>37624</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>5.99</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="5">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+      <c r="A146" s="3">
         <v>37625</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>6.65</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="5">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+      <c r="A147" s="3">
         <v>37626</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>6.51</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="5">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+      <c r="A148" s="3">
         <v>37627</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>5.34</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="5">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+      <c r="A149" s="3">
         <v>37628</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>4.71</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="5">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+      <c r="A150" s="3">
         <v>37629</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>3.95</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="5">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+      <c r="A151" s="3">
         <v>37630</v>
       </c>
-      <c r="B151" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="5">
+      <c r="B151" s="4">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+      <c r="A152" s="3">
         <v>37631</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>5.13</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="5">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+      <c r="A153" s="3">
         <v>37632</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>5.42</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="5">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+      <c r="A154" s="3">
         <v>37633</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>5.74</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="5">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+      <c r="A155" s="3">
         <v>37987</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>6.5</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="5">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+      <c r="A156" s="3">
         <v>37988</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>6.14</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="5">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+      <c r="A157" s="3">
         <v>37989</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>4.78</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="5">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+      <c r="A158" s="3">
         <v>37990</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>4.51</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="5">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+      <c r="A159" s="3">
         <v>37991</v>
       </c>
-      <c r="B159" s="3">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="5">
+      <c r="B159" s="4">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+      <c r="A160" s="3">
         <v>37992</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>6.74</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="5">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+      <c r="A161" s="3">
         <v>37993</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>7.61</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="5">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+      <c r="A162" s="3">
         <v>37994</v>
       </c>
-      <c r="B162" s="3">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="5">
+      <c r="B162" s="4">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+      <c r="A163" s="3">
         <v>37995</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>7.86</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="5">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+      <c r="A164" s="3">
         <v>37996</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>7.27</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="5">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+      <c r="A165" s="3">
         <v>37997</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>7.52</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A166" s="5">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+      <c r="A166" s="3">
         <v>37998</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>6.79</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A167" s="5">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+      <c r="A167" s="3">
         <v>38353</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>5.54</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="5">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+      <c r="A168" s="3">
         <v>38354</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>5.01</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A169" s="5">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+      <c r="A169" s="3">
         <v>38355</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>5.34</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A170" s="5">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+      <c r="A170" s="3">
         <v>38356</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>5.91</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A171" s="5">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+      <c r="A171" s="3">
         <v>38357</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>5.49</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="5">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+      <c r="A172" s="3">
         <v>38358</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>4.32</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A173" s="5">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+      <c r="A173" s="3">
         <v>38359</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>4.29</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A174" s="5">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+      <c r="A174" s="3">
         <v>38360</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>3.66</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A175" s="5">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+      <c r="A175" s="3">
         <v>38361</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>4.12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="5">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+      <c r="A176" s="3">
         <v>38362</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>4.71</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A177" s="5">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+      <c r="A177" s="3">
         <v>38363</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>4.21</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="5">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+      <c r="A178" s="3">
         <v>38364</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>4.45</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="5">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+      <c r="A179" s="3">
         <v>38718</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>4.08</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="5">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+      <c r="A180" s="3">
         <v>38719</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>4.03</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="5">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+      <c r="A181" s="3">
         <v>38720</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>3.91</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="5">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+      <c r="A182" s="3">
         <v>38721</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>3.86</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="5">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+      <c r="A183" s="3">
         <v>38722</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>4.79</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="5">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+      <c r="A184" s="3">
         <v>38723</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>5.12</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="5">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+      <c r="A185" s="3">
         <v>38724</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>4.83</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="5">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+      <c r="A186" s="3">
         <v>38725</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>5.12</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="5">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+      <c r="A187" s="3">
         <v>38726</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>5.38</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A188" s="5">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+      <c r="A188" s="3">
         <v>38727</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>5.51</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="5">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+      <c r="A189" s="3">
         <v>38728</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A190" s="5">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+      <c r="A190" s="3">
         <v>38729</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>5.68</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="5">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+      <c r="A191" s="3">
         <v>39083</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>6.37</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A192" s="5">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+      <c r="A192" s="3">
         <v>39084</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>6.36</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="5">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+      <c r="A193" s="3">
         <v>39085</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>6.61</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="5">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+      <c r="A194" s="3">
         <v>39086</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>6.28</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="5">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+      <c r="A195" s="3">
         <v>39087</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>5.46</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="5">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+      <c r="A196" s="3">
         <v>39088</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>4.53</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A197" s="5">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+      <c r="A197" s="3">
         <v>39089</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>4.71</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="5">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+      <c r="A198" s="3">
         <v>39090</v>
       </c>
-      <c r="B198" s="3">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A199" s="5">
+      <c r="B198" s="4">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+      <c r="A199" s="3">
         <v>39091</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>3.51</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="5">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+      <c r="A200" s="3">
         <v>39092</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>3.11</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A201" s="5">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+      <c r="A201" s="3">
         <v>39093</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>3.25</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="5">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+      <c r="A202" s="3">
         <v>39094</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>3.84</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A203" s="5">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+      <c r="A203" s="3">
         <v>39448</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="4">
         <v>4.45</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="5">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+      <c r="A204" s="3">
         <v>39449</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>5.27</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A205" s="5">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+      <c r="A205" s="3">
         <v>39450</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>7.48</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A206" s="5">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+      <c r="A206" s="3">
         <v>39451</v>
       </c>
-      <c r="B206" s="3">
-        <v>8.0399999999999991</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A207" s="5">
+      <c r="B206" s="4">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+      <c r="A207" s="3">
         <v>39452</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>8.86</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A208" s="5">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+      <c r="A208" s="3">
         <v>39453</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>11.82</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A209" s="5">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+      <c r="A209" s="3">
         <v>39454</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>12.36</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A210" s="5">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+      <c r="A210" s="3">
         <v>39455</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>12.82</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A211" s="5">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+      <c r="A211" s="3">
         <v>39456</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>12.27</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A212" s="5">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+      <c r="A212" s="3">
         <v>39457</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>11.06</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A213" s="5">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+      <c r="A213" s="3">
         <v>39458</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>8.48</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A214" s="5">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+      <c r="A214" s="3">
         <v>39459</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>6.15</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A215" s="5">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+      <c r="A215" s="3">
         <v>39814</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>4.95</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="5">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+      <c r="A216" s="3">
         <v>39815</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A217" s="5">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+      <c r="A217" s="3">
         <v>39816</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A218" s="5">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+      <c r="A218" s="3">
         <v>39817</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>1.31</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A219" s="5">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+      <c r="A219" s="3">
         <v>39818</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>1.38</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A220" s="5">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+      <c r="A220" s="3">
         <v>39819</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>-1.01</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="5">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+      <c r="A221" s="3">
         <v>39820</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>-0.54</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A222" s="5">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+      <c r="A222" s="3">
         <v>39821</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A223" s="5">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+      <c r="A223" s="3">
         <v>39822</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="5">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+      <c r="A224" s="3">
         <v>39823</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>1.46</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="5">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+      <c r="A225" s="3">
         <v>39824</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>5.55</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A226" s="5">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+      <c r="A226" s="3">
         <v>39825</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A227" s="5">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+      <c r="A227" s="3">
         <v>40179</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="4">
         <v>9.44</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A228" s="5">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+      <c r="A228" s="3">
         <v>40180</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>10.06</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A229" s="5">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+      <c r="A229" s="3">
         <v>40181</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>11.04</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A230" s="5">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+      <c r="A230" s="3">
         <v>40182</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>11.23</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A231" s="5">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
+      <c r="A231" s="3">
         <v>40183</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>11.14</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A232" s="5">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
+      <c r="A232" s="3">
         <v>40184</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="4">
         <v>11.06</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A233" s="5">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
+      <c r="A233" s="3">
         <v>40185</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="4">
         <v>10.31</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A234" s="5">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
+      <c r="A234" s="3">
         <v>40186</v>
       </c>
-      <c r="B234" s="3">
-        <v>9.7200000000000006</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A235" s="5">
+      <c r="B234" s="4">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
+      <c r="A235" s="3">
         <v>40187</v>
       </c>
-      <c r="B235" s="3">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A236" s="5">
+      <c r="B235" s="4">
+        <v>9.63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
+      <c r="A236" s="3">
         <v>40188</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>10.37</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A237" s="5">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
+      <c r="A237" s="3">
         <v>40189</v>
       </c>
-      <c r="B237" s="3">
-        <v>8.9600000000000009</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A238" s="5">
+      <c r="B237" s="4">
+        <v>8.96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
+      <c r="A238" s="3">
         <v>40190</v>
       </c>
-      <c r="B238" s="3">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A239" s="5">
+      <c r="B238" s="4">
+        <v>10.13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
+      <c r="A239" s="3">
         <v>40544</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>10.66</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A240" s="5">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
+      <c r="A240" s="3">
         <v>40545</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>10.74</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A241" s="5">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
+      <c r="A241" s="3">
         <v>40546</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="4">
         <v>10.5</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A242" s="5">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
+      <c r="A242" s="3">
         <v>40547</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="4">
         <v>10.63</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A243" s="5">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
+      <c r="A243" s="3">
         <v>40548</v>
       </c>
-      <c r="B243" s="3">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A244" s="5">
+      <c r="B243" s="4">
+        <v>9.62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
+      <c r="A244" s="3">
         <v>40549</v>
       </c>
-      <c r="B244" s="3">
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A245" s="5">
+      <c r="B244" s="4">
+        <v>9.87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+      <c r="A245" s="3">
         <v>40550</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="4">
         <v>9.69</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A246" s="5">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+      <c r="A246" s="3">
         <v>40551</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="4">
         <v>9.81</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A247" s="5">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+      <c r="A247" s="3">
         <v>40552</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A248" s="5">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+      <c r="A248" s="3">
         <v>40553</v>
       </c>
-      <c r="B248" s="3">
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A249" s="5">
+      <c r="B248" s="4">
+        <v>9.87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+      <c r="A249" s="3">
         <v>40554</v>
       </c>
-      <c r="B249" s="3">
-        <v>9.4600000000000009</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A250" s="5">
+      <c r="B249" s="4">
+        <v>9.46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+      <c r="A250" s="3">
         <v>40555</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="4">
         <v>7.74</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A251" s="5">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
+      <c r="A251" s="3">
         <v>40909</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>7.23</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A252" s="5">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
+      <c r="A252" s="3">
         <v>40910</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="4">
         <v>7.56</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A253" s="5">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
+      <c r="A253" s="3">
         <v>40911</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="4">
         <v>7.69</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A254" s="5">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
+      <c r="A254" s="3">
         <v>40912</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A255" s="5">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
+      <c r="A255" s="3">
         <v>40913</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="4">
         <v>7.55</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A256" s="5">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
+      <c r="A256" s="3">
         <v>40914</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="4">
         <v>7.58</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A257" s="5">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
+      <c r="A257" s="3">
         <v>40915</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="4">
         <v>7.52</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A258" s="5">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
+      <c r="A258" s="3">
         <v>40916</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="4">
         <v>8.01</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A259" s="5">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
+      <c r="A259" s="3">
         <v>40917</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="4">
         <v>8.07</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A260" s="5">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
+      <c r="A260" s="3">
         <v>40918</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="4">
         <v>7.32</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A261" s="5">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
+      <c r="A261" s="3">
         <v>40919</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="4">
         <v>7.24</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A262" s="5">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
+      <c r="A262" s="3">
         <v>40920</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="4">
         <v>7.31</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A263" s="5">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
+      <c r="A263" s="3">
         <v>41275</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="4">
         <v>7.31</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A264" s="5">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
+      <c r="A264" s="3">
         <v>41276</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="4">
         <v>7.28</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A265" s="5">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
+      <c r="A265" s="3">
         <v>41277</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="4">
         <v>5.65</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A266" s="5">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
+      <c r="A266" s="3">
         <v>41278</v>
       </c>
-      <c r="B266" s="3">
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A267" s="5">
+      <c r="B266" s="4">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
+      <c r="A267" s="3">
         <v>41279</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="4">
         <v>4.58</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A268" s="5">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
+      <c r="A268" s="3">
         <v>41280</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="4">
         <v>5.16</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A269" s="5">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
+      <c r="A269" s="3">
         <v>41281</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="4">
         <v>5.85</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A270" s="5">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
+      <c r="A270" s="3">
         <v>41282</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="4">
         <v>6.99</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A271" s="5">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
+      <c r="A271" s="3">
         <v>41283</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="4">
         <v>7.05</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A272" s="5">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
+      <c r="A272" s="3">
         <v>41284</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="4">
         <v>7.24</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A273" s="5">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
+      <c r="A273" s="3">
         <v>41285</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="4">
         <v>7.52</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A274" s="5">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
+      <c r="A274" s="3">
         <v>41286</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="4">
         <v>6.4</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A275" s="5">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
+      <c r="A275" s="3">
         <v>41640</v>
       </c>
-      <c r="B275" s="3">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A276" s="5">
+      <c r="B275" s="4">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
+      <c r="A276" s="3">
         <v>41641</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="4">
         <v>5.03</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A277" s="5">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
+      <c r="A277" s="3">
         <v>41642</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A278" s="5">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
+      <c r="A278" s="3">
         <v>41643</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="4">
         <v>5.55</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A279" s="5">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
+      <c r="A279" s="3">
         <v>41644</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="4">
         <v>6.18</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A280" s="5">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
+      <c r="A280" s="3">
         <v>41645</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="4">
         <v>5.66</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A281" s="5">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
+      <c r="A281" s="3">
         <v>41646</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="4">
         <v>5.41</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A282" s="5">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
+      <c r="A282" s="3">
         <v>41647</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="4">
         <v>3.85</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A283" s="5">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
+      <c r="A283" s="3">
         <v>41648</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="4">
         <v>2.38</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A284" s="5">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
+      <c r="A284" s="3">
         <v>41649</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="4">
         <v>1.66</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A285" s="5">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
+      <c r="A285" s="3">
         <v>41650</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="4">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A286" s="5">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
+      <c r="A286" s="3">
         <v>41651</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="4">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A287" s="5">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
+      <c r="A287" s="3">
         <v>42005</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="4">
         <v>-0.95</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A288" s="5">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
+      <c r="A288" s="3">
         <v>42006</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="4">
         <v>-2.17</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A289" s="5">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
+      <c r="A289" s="3">
         <v>42007</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="4">
         <v>-2.33</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A290" s="5">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
+      <c r="A290" s="3">
         <v>42008</v>
       </c>
-      <c r="B290" s="3">
-        <v>-2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A291" s="5">
+      <c r="B290" s="4">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
+      <c r="A291" s="3">
         <v>42009</v>
       </c>
-      <c r="B291" s="3">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A292" s="5">
+      <c r="B291" s="4">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
+      <c r="A292" s="3">
         <v>42010</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="4">
         <v>-2.13</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A293" s="5">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
+      <c r="A293" s="3">
         <v>42011</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="5">
         <v>-4</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A294" s="5">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
+      <c r="A294" s="3">
         <v>42012</v>
       </c>
-      <c r="B294" s="3">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A295" s="5">
+      <c r="B294" s="4">
+        <v>-5.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
+      <c r="A295" s="3">
         <v>42013</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="4">
         <v>-4.59</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A296" s="5">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
+      <c r="A296" s="3">
         <v>42014</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="4">
         <v>-3.7</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A297" s="5">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
+      <c r="A297" s="3">
         <v>42015</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="4">
         <v>-2.04</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A298" s="5">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
+      <c r="A298" s="3">
         <v>42016</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="4">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A299" s="5">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
+      <c r="A299" s="3">
         <v>42370</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="4">
         <v>-1.07</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A300" s="5">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
+      <c r="A300" s="3">
         <v>42371</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="4">
         <v>-0.85</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A301" s="5">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
+      <c r="A301" s="3">
         <v>42372</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="4">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A302" s="5">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
+      <c r="A302" s="3">
         <v>42373</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="4">
         <v>0.79</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A303" s="5">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
+      <c r="A303" s="3">
         <v>42374</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="4">
         <v>1.24</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A304" s="5">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
+      <c r="A304" s="3">
         <v>42375</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="4">
         <v>2.12</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A305" s="5">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
+      <c r="A305" s="3">
         <v>42376</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="4">
         <v>3.72</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A306" s="5">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
+      <c r="A306" s="3">
         <v>42377</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="4">
         <v>3.85</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A307" s="5">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
+      <c r="A307" s="3">
         <v>42378</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A308" s="5">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
+      <c r="A308" s="3">
         <v>42379</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="4">
         <v>3.79</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A309" s="5">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
+      <c r="A309" s="3">
         <v>42380</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="4">
         <v>3.38</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A310" s="5">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
+      <c r="A310" s="3">
         <v>42381</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="4">
         <v>3.68</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A311" s="5">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
+      <c r="A311" s="3">
         <v>42736</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="4">
         <v>5.53</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A312" s="5">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
+      <c r="A312" s="3">
         <v>42737</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="4">
         <v>6.55</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A313" s="5">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
+      <c r="A313" s="3">
         <v>42738</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="4">
         <v>5.99</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A314" s="5">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
+      <c r="A314" s="3">
         <v>42739</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="4">
         <v>3.85</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A315" s="5">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
+      <c r="A315" s="3">
         <v>42740</v>
       </c>
-      <c r="B315" s="3">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A316" s="5">
+      <c r="B315" s="4">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
+      <c r="A316" s="3">
         <v>42741</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A317" s="5">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
+      <c r="A317" s="3">
         <v>42742</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A318" s="5">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
+      <c r="A318" s="3">
         <v>42743</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="4">
         <v>3.24</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A319" s="5">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
+      <c r="A319" s="3">
         <v>42744</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="4">
         <v>3.14</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A320" s="5">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
+      <c r="A320" s="3">
         <v>42745</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="4">
         <v>3.68</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A321" s="5">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
+      <c r="A321" s="3">
         <v>42746</v>
       </c>
-      <c r="B321" s="3">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A322" s="5">
+      <c r="B321" s="4">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
+      <c r="A322" s="3">
         <v>42747</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="4">
         <v>3.58</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A323" s="5">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
+      <c r="A323" s="3">
         <v>43101</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="4">
         <v>3.02</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A324" s="5">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
+      <c r="A324" s="3">
         <v>43102</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="4">
         <v>2.74</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A325" s="5">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
+      <c r="A325" s="3">
         <v>43103</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="4">
         <v>2.74</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A326" s="5">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
+      <c r="A326" s="3">
         <v>43104</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="4">
         <v>3.62</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A327" s="5">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
+      <c r="A327" s="3">
         <v>43105</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="4">
         <v>4.78</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A328" s="5">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
+      <c r="A328" s="3">
         <v>43106</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="4">
         <v>5.68</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A329" s="5">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
+      <c r="A329" s="3">
         <v>43107</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="4">
         <v>5.27</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A330" s="5">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
+      <c r="A330" s="3">
         <v>43108</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="4">
         <v>4.62</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A331" s="5">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
+      <c r="A331" s="3">
         <v>43109</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="4">
         <v>5.22</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A332" s="5">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
+      <c r="A332" s="3">
         <v>43110</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="4">
         <v>5.54</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A333" s="5">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
+      <c r="A333" s="3">
         <v>43111</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="4">
         <v>4.47</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A334" s="5">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
+      <c r="A334" s="3">
         <v>43112</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="4">
         <v>3.46</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A335" s="5">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
+      <c r="A335" s="3">
         <v>43466</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="4">
         <v>2.76</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A336" s="5">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
+      <c r="A336" s="3">
         <v>43467</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="4">
         <v>2.93</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A337" s="5">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
+      <c r="A337" s="3">
         <v>43468</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="4">
         <v>3.1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A338" s="5">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
+      <c r="A338" s="3">
         <v>43469</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="4">
         <v>3.24</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A339" s="5">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
+      <c r="A339" s="3">
         <v>43470</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="4">
         <v>2.79</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A340" s="5">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
+      <c r="A340" s="3">
         <v>43471</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="4">
         <v>2.02</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A341" s="5">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
+      <c r="A341" s="3">
         <v>43472</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="4">
         <v>1.17</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A342" s="5">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
+      <c r="A342" s="3">
         <v>43473</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="4">
         <v>1.17</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A343" s="5">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
+      <c r="A343" s="3">
         <v>43474</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="4">
         <v>0.33</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A344" s="5">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
+      <c r="A344" s="3">
         <v>43475</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A345" s="5">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
+      <c r="A345" s="3">
         <v>43476</v>
       </c>
-      <c r="B345" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A346" s="5">
+      <c r="B345" s="4">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
+      <c r="A346" s="3">
         <v>43477</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="4">
         <v>2.76</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A347" s="5">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
+      <c r="A347" s="3">
         <v>43831</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="4">
         <v>3.52</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A348" s="5">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
+      <c r="A348" s="3">
         <v>43832</v>
       </c>
-      <c r="B348" s="3">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A349" s="5">
+      <c r="B348" s="4">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
+      <c r="A349" s="3">
         <v>43833</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="4">
         <v>0.42</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A350" s="5">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
+      <c r="A350" s="3">
         <v>43834</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="4">
         <v>-1.57</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A351" s="5">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
+      <c r="A351" s="3">
         <v>43835</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="4">
         <v>-3.37</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A352" s="5">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
+      <c r="A352" s="3">
         <v>43836</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="4">
         <v>-1.81</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A353" s="5">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
+      <c r="A353" s="3">
         <v>43837</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="4">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A354" s="5">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
+      <c r="A354" s="3">
         <v>43838</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="4">
         <v>0.41</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A355" s="5">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
+      <c r="A355" s="3">
         <v>43839</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="4">
         <v>1.32</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A356" s="5">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
+      <c r="A356" s="3">
         <v>43840</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="4">
         <v>1.31</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A357" s="5">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
+      <c r="A357" s="3">
         <v>43841</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="4">
         <v>2.29</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A358" s="5">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
+      <c r="A358" s="3">
         <v>43842</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="4">
         <v>1.95</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A359" s="5">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
+      <c r="A359" s="3">
         <v>44197</v>
       </c>
-      <c r="B359" s="3">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A360" s="5">
+      <c r="B359" s="4">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
+      <c r="A360" s="3">
         <v>44198</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="4">
         <v>4.83</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A361" s="5">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
+      <c r="A361" s="3">
         <v>44199</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="4">
         <v>7.89</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A362" s="5">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
+      <c r="A362" s="3">
         <v>44200</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="4">
         <v>10.74</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A363" s="5">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
+      <c r="A363" s="3">
         <v>44201</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="4">
         <v>13.11</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A364" s="5">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
+      <c r="A364" s="3">
         <v>44202</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="4">
         <v>12.07</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A365" s="5">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
+      <c r="A365" s="3">
         <v>44203</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="4">
         <v>11.57</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A366" s="5">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
+      <c r="A366" s="3">
         <v>44204</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="4">
         <v>11.64</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A367" s="5">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
+      <c r="A367" s="3">
         <v>44205</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="4">
         <v>11.8</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A368" s="5">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
+      <c r="A368" s="3">
         <v>44206</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="4">
         <v>13.83</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A369" s="5">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
+      <c r="A369" s="3">
         <v>44207</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="4">
         <v>14.87</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A370" s="5">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
+      <c r="A370" s="3">
         <v>44208</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="4">
         <v>14.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A371" s="5">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
+      <c r="A371" s="3">
         <v>44562</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="4">
         <v>13.68</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A372" s="5">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
+      <c r="A372" s="3">
         <v>44563</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="4">
         <v>13.43</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A373" s="5">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
+      <c r="A373" s="3">
         <v>44564</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="4">
         <v>14.63</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A374" s="5">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
+      <c r="A374" s="3">
         <v>44565</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="4">
         <v>15.38</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A375" s="5">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
+      <c r="A375" s="3">
         <v>44566</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="4">
         <v>15.88</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A376" s="5">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
+      <c r="A376" s="3">
         <v>44567</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="4">
         <v>15.18</v>
       </c>
     </row>

--- a/excel_files/inflation_data_1excel.xlsx
+++ b/excel_files/inflation_data_1excel.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\inflation_prediction_project\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01851528-1B3D-44B2-8255-A297F41B18DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="inflation_data"/>
+    <sheet name="inflation_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/yyyy"/>
   </numFmts>
@@ -78,37 +84,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D66F0B0E-F354-4357-8531-4811678498ED}"/>
+  </tableStyles>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -119,10 +130,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -160,71 +171,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -252,7 +263,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -275,11 +286,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -288,13 +299,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -304,7 +315,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -313,7 +324,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -322,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,10 +341,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -398,21 +409,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B376"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B376"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>33242</v>
       </c>
@@ -428,7 +441,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>33243</v>
       </c>
@@ -436,7 +449,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>33244</v>
       </c>
@@ -444,7 +457,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>33245</v>
       </c>
@@ -452,7 +465,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>33246</v>
       </c>
@@ -460,15 +473,15 @@
         <v>16.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>33247</v>
       </c>
       <c r="B7" s="4">
-        <v>16.31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>33248</v>
       </c>
@@ -476,7 +489,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>33249</v>
       </c>
@@ -484,7 +497,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>33250</v>
       </c>
@@ -492,7 +505,7 @@
         <v>14.26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>33604</v>
       </c>
@@ -500,7 +513,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>33605</v>
       </c>
@@ -508,7 +521,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>33606</v>
       </c>
@@ -516,7 +529,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>33607</v>
       </c>
@@ -524,7 +537,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>33608</v>
       </c>
@@ -532,7 +545,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>33609</v>
       </c>
@@ -540,7 +553,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>33610</v>
       </c>
@@ -548,15 +561,15 @@
         <v>11.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>33611</v>
       </c>
       <c r="B18" s="4">
-        <v>9.37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>33612</v>
       </c>
@@ -564,7 +577,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>33613</v>
       </c>
@@ -572,7 +585,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>33614</v>
       </c>
@@ -580,15 +593,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>33615</v>
       </c>
       <c r="B22" s="4">
-        <v>8.54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>33970</v>
       </c>
@@ -596,7 +609,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>33971</v>
       </c>
@@ -604,7 +617,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>33972</v>
       </c>
@@ -612,7 +625,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>33973</v>
       </c>
@@ -620,7 +633,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>33974</v>
       </c>
@@ -628,7 +641,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>33975</v>
       </c>
@@ -636,7 +649,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>33976</v>
       </c>
@@ -644,7 +657,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>33977</v>
       </c>
@@ -652,7 +665,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>33978</v>
       </c>
@@ -660,7 +673,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>33979</v>
       </c>
@@ -668,7 +681,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>33980</v>
       </c>
@@ -676,7 +689,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>33981</v>
       </c>
@@ -684,7 +697,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>34335</v>
       </c>
@@ -692,15 +705,15 @@
         <v>9.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34336</v>
       </c>
       <c r="B36" s="4">
-        <v>9.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>34337</v>
       </c>
@@ -708,7 +721,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>34338</v>
       </c>
@@ -716,7 +729,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>34339</v>
       </c>
@@ -724,7 +737,7 @@
         <v>11.98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>34340</v>
       </c>
@@ -732,7 +745,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>34341</v>
       </c>
@@ -740,7 +753,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>34342</v>
       </c>
@@ -748,7 +761,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>34343</v>
       </c>
@@ -756,7 +769,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>34344</v>
       </c>
@@ -764,15 +777,15 @@
         <v>8.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>34345</v>
       </c>
       <c r="B45" s="4">
-        <v>9.78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>34346</v>
       </c>
@@ -780,7 +793,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>34700</v>
       </c>
@@ -788,7 +801,7 @@
         <v>12.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>34701</v>
       </c>
@@ -796,7 +809,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>34702</v>
       </c>
@@ -804,23 +817,23 @@
         <v>10.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>34703</v>
       </c>
       <c r="B50" s="4">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>34704</v>
       </c>
       <c r="B51" s="4">
-        <v>9.87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>34705</v>
       </c>
@@ -828,7 +841,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>34706</v>
       </c>
@@ -836,7 +849,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>34707</v>
       </c>
@@ -844,7 +857,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>34708</v>
       </c>
@@ -852,15 +865,15 @@
         <v>8.86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>34709</v>
       </c>
       <c r="B56" s="4">
-        <v>8.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>34710</v>
       </c>
@@ -868,7 +881,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>34711</v>
       </c>
@@ -876,23 +889,23 @@
         <v>6.36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>35065</v>
       </c>
       <c r="B59" s="4">
-        <v>4.98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>35066</v>
       </c>
       <c r="B60" s="4">
-        <v>4.64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>35067</v>
       </c>
@@ -900,7 +913,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>35068</v>
       </c>
@@ -908,7 +921,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>35069</v>
       </c>
@@ -916,7 +929,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>35070</v>
       </c>
@@ -924,7 +937,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>35071</v>
       </c>
@@ -932,7 +945,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>35072</v>
       </c>
@@ -940,7 +953,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>35073</v>
       </c>
@@ -948,7 +961,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>35074</v>
       </c>
@@ -956,7 +969,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>35075</v>
       </c>
@@ -964,7 +977,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>35076</v>
       </c>
@@ -972,7 +985,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>35431</v>
       </c>
@@ -980,7 +993,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>35432</v>
       </c>
@@ -988,7 +1001,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>35433</v>
       </c>
@@ -996,7 +1009,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>35434</v>
       </c>
@@ -1004,7 +1017,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>35435</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>35436</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>35437</v>
       </c>
@@ -1028,7 +1041,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>35438</v>
       </c>
@@ -1036,7 +1049,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>35439</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>35440</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>35441</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>35442</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>35796</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>35797</v>
       </c>
@@ -1084,15 +1097,15 @@
         <v>4.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>35798</v>
       </c>
       <c r="B85" s="4">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>35799</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>35800</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>35801</v>
       </c>
@@ -1116,15 +1129,15 @@
         <v>7.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>35802</v>
       </c>
       <c r="B89" s="4">
-        <v>8.29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>35803</v>
       </c>
@@ -1132,15 +1145,15 @@
         <v>8.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>35804</v>
       </c>
       <c r="B91" s="4">
-        <v>8.55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>35805</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>35806</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>35807</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>36161</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>36162</v>
       </c>
@@ -1180,15 +1193,15 @@
         <v>5.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>36163</v>
       </c>
       <c r="B97" s="4">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>36164</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>36165</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>36166</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row r="101" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>36167</v>
       </c>
@@ -1220,15 +1233,15 @@
         <v>2.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>36168</v>
       </c>
       <c r="B102" s="4">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>36169</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>36170</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row r="105" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>36171</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>36172</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>36526</v>
       </c>
@@ -1268,7 +1281,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row r="108" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>36527</v>
       </c>
@@ -1276,7 +1289,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    <row r="109" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>36528</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    <row r="110" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>36529</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    <row r="111" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>36530</v>
       </c>
@@ -1300,7 +1313,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+    <row r="112" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>36531</v>
       </c>
@@ -1308,7 +1321,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+    <row r="113" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>36532</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+    <row r="114" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>36533</v>
       </c>
@@ -1324,15 +1337,15 @@
         <v>5.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    <row r="115" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>36534</v>
       </c>
       <c r="B115" s="4">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>36535</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+    <row r="117" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>36536</v>
       </c>
@@ -1348,7 +1361,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+    <row r="118" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>36537</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+    <row r="119" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>36892</v>
       </c>
@@ -1364,7 +1377,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+    <row r="120" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>36893</v>
       </c>
@@ -1372,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+    <row r="121" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>36894</v>
       </c>
@@ -1380,7 +1393,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+    <row r="122" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>36895</v>
       </c>
@@ -1388,7 +1401,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+    <row r="123" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>36896</v>
       </c>
@@ -1396,7 +1409,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+    <row r="124" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>36897</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+    <row r="125" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>36898</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+    <row r="126" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>36899</v>
       </c>
@@ -1420,15 +1433,15 @@
         <v>5.41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row r="127" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>36900</v>
       </c>
       <c r="B127" s="4">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>36901</v>
       </c>
@@ -1436,7 +1449,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>36902</v>
       </c>
@@ -1444,7 +1457,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>36903</v>
       </c>
@@ -1452,7 +1465,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>37257</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>37258</v>
       </c>
@@ -1468,7 +1481,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>37259</v>
       </c>
@@ -1476,7 +1489,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>37260</v>
       </c>
@@ -1484,7 +1497,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>37261</v>
       </c>
@@ -1492,15 +1505,15 @@
         <v>1.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>37262</v>
       </c>
       <c r="B136" s="4">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>37263</v>
       </c>
@@ -1508,7 +1521,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>37264</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>37265</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>37266</v>
       </c>
@@ -1532,7 +1545,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>37267</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>37268</v>
       </c>
@@ -1548,7 +1561,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>37622</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>37623</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>37624</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>37625</v>
       </c>
@@ -1580,7 +1593,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row r="147" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>37626</v>
       </c>
@@ -1588,7 +1601,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row r="148" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>37627</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    <row r="149" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
         <v>37628</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row r="150" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>37629</v>
       </c>
@@ -1612,15 +1625,15 @@
         <v>3.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row r="151" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>37630</v>
       </c>
       <c r="B151" s="4">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
         <v>37631</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row r="153" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
         <v>37632</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row r="154" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
         <v>37633</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row r="155" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
         <v>37987</v>
       </c>
@@ -1652,7 +1665,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row r="156" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
         <v>37988</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row r="157" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
         <v>37989</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row r="158" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
         <v>37990</v>
       </c>
@@ -1676,15 +1689,15 @@
         <v>4.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row r="159" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
         <v>37991</v>
       </c>
       <c r="B159" s="4">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
         <v>37992</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row r="161" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3">
         <v>37993</v>
       </c>
@@ -1700,15 +1713,15 @@
         <v>7.61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    <row r="162" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
         <v>37994</v>
       </c>
       <c r="B162" s="4">
-        <v>8.46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
         <v>37995</v>
       </c>
@@ -1716,7 +1729,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+    <row r="164" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3">
         <v>37996</v>
       </c>
@@ -1724,7 +1737,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    <row r="165" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
         <v>37997</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+    <row r="166" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
         <v>37998</v>
       </c>
@@ -1740,7 +1753,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+    <row r="167" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3">
         <v>38353</v>
       </c>
@@ -1748,7 +1761,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+    <row r="168" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
         <v>38354</v>
       </c>
@@ -1756,7 +1769,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+    <row r="169" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
         <v>38355</v>
       </c>
@@ -1764,7 +1777,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+    <row r="170" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
         <v>38356</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+    <row r="171" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3">
         <v>38357</v>
       </c>
@@ -1780,7 +1793,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+    <row r="172" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
         <v>38358</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+    <row r="173" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
         <v>38359</v>
       </c>
@@ -1796,7 +1809,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+    <row r="174" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3">
         <v>38360</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+    <row r="175" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
         <v>38361</v>
       </c>
@@ -1812,7 +1825,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    <row r="176" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3">
         <v>38362</v>
       </c>
@@ -1820,7 +1833,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3">
         <v>38363</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3">
         <v>38364</v>
       </c>
@@ -1836,7 +1849,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
         <v>38718</v>
       </c>
@@ -1844,7 +1857,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
         <v>38719</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3">
         <v>38720</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
         <v>38721</v>
       </c>
@@ -1868,7 +1881,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
         <v>38722</v>
       </c>
@@ -1876,7 +1889,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+    <row r="184" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
         <v>38723</v>
       </c>
@@ -1884,7 +1897,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+    <row r="185" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
         <v>38724</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    <row r="186" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
         <v>38725</v>
       </c>
@@ -1900,7 +1913,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    <row r="187" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
         <v>38726</v>
       </c>
@@ -1908,7 +1921,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    <row r="188" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
         <v>38727</v>
       </c>
@@ -1916,7 +1929,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+    <row r="189" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
         <v>38728</v>
       </c>
@@ -1924,7 +1937,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+    <row r="190" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
         <v>38729</v>
       </c>
@@ -1932,7 +1945,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    <row r="191" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
         <v>39083</v>
       </c>
@@ -1940,7 +1953,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    <row r="192" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
         <v>39084</v>
       </c>
@@ -1948,7 +1961,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+    <row r="193" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3">
         <v>39085</v>
       </c>
@@ -1956,7 +1969,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    <row r="194" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3">
         <v>39086</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+    <row r="195" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
         <v>39087</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+    <row r="196" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3">
         <v>39088</v>
       </c>
@@ -1980,7 +1993,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+    <row r="197" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3">
         <v>39089</v>
       </c>
@@ -1988,15 +2001,15 @@
         <v>4.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+    <row r="198" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3">
         <v>39090</v>
       </c>
       <c r="B198" s="4">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3">
         <v>39091</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+    <row r="200" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3">
         <v>39092</v>
       </c>
@@ -2012,7 +2025,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+    <row r="201" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3">
         <v>39093</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+    <row r="202" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3">
         <v>39094</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+    <row r="203" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3">
         <v>39448</v>
       </c>
@@ -2036,7 +2049,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+    <row r="204" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3">
         <v>39449</v>
       </c>
@@ -2044,7 +2057,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+    <row r="205" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3">
         <v>39450</v>
       </c>
@@ -2052,15 +2065,15 @@
         <v>7.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+    <row r="206" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3">
         <v>39451</v>
       </c>
       <c r="B206" s="4">
-        <v>8.04</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3">
         <v>39452</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+    <row r="208" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3">
         <v>39453</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+    <row r="209" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="3">
         <v>39454</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+    <row r="210" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3">
         <v>39455</v>
       </c>
@@ -2092,7 +2105,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+    <row r="211" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="3">
         <v>39456</v>
       </c>
@@ -2100,7 +2113,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+    <row r="212" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="3">
         <v>39457</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+    <row r="213" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="3">
         <v>39458</v>
       </c>
@@ -2116,7 +2129,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+    <row r="214" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="3">
         <v>39459</v>
       </c>
@@ -2124,7 +2137,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+    <row r="215" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
         <v>39814</v>
       </c>
@@ -2132,7 +2145,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+    <row r="216" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="3">
         <v>39815</v>
       </c>
@@ -2140,7 +2153,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+    <row r="217" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="3">
         <v>39816</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+    <row r="218" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="3">
         <v>39817</v>
       </c>
@@ -2156,7 +2169,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+    <row r="219" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="3">
         <v>39818</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+    <row r="220" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
         <v>39819</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+    <row r="221" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="3">
         <v>39820</v>
       </c>
@@ -2180,7 +2193,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+    <row r="222" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
         <v>39821</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+    <row r="223" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
         <v>39822</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+    <row r="224" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="3">
         <v>39823</v>
       </c>
@@ -2204,7 +2217,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+    <row r="225" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
         <v>39824</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+    <row r="226" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
         <v>39825</v>
       </c>
@@ -2220,7 +2233,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+    <row r="227" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
         <v>40179</v>
       </c>
@@ -2228,7 +2241,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+    <row r="228" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
         <v>40180</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+    <row r="229" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
         <v>40181</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+    <row r="230" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
         <v>40182</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>11.23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
+    <row r="231" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
         <v>40183</v>
       </c>
@@ -2260,7 +2273,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
+    <row r="232" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
         <v>40184</v>
       </c>
@@ -2268,7 +2281,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
+    <row r="233" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
         <v>40185</v>
       </c>
@@ -2276,23 +2289,23 @@
         <v>10.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
+    <row r="234" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
         <v>40186</v>
       </c>
       <c r="B234" s="4">
-        <v>9.72</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
         <v>40187</v>
       </c>
       <c r="B235" s="4">
-        <v>9.63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
         <v>40188</v>
       </c>
@@ -2300,23 +2313,23 @@
         <v>10.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
+    <row r="237" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
         <v>40189</v>
       </c>
       <c r="B237" s="4">
-        <v>8.96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
         <v>40190</v>
       </c>
       <c r="B238" s="4">
-        <v>10.13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
         <v>40544</v>
       </c>
@@ -2324,7 +2337,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
+    <row r="240" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
         <v>40545</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
+    <row r="241" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="3">
         <v>40546</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
+    <row r="242" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="3">
         <v>40547</v>
       </c>
@@ -2348,23 +2361,23 @@
         <v>10.63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
+    <row r="243" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="3">
         <v>40548</v>
       </c>
       <c r="B243" s="4">
-        <v>9.62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
         <v>40549</v>
       </c>
       <c r="B244" s="4">
-        <v>9.87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
         <v>40550</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+    <row r="246" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="3">
         <v>40551</v>
       </c>
@@ -2380,7 +2393,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+    <row r="247" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="3">
         <v>40552</v>
       </c>
@@ -2388,23 +2401,23 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+    <row r="248" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
         <v>40553</v>
       </c>
       <c r="B248" s="4">
-        <v>9.87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
         <v>40554</v>
       </c>
       <c r="B249" s="4">
-        <v>9.46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
         <v>40555</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
+    <row r="251" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
         <v>40909</v>
       </c>
@@ -2420,7 +2433,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
+    <row r="252" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
         <v>40910</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
+    <row r="253" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
         <v>40911</v>
       </c>
@@ -2436,7 +2449,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
+    <row r="254" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
         <v>40912</v>
       </c>
@@ -2444,7 +2457,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
+    <row r="255" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
         <v>40913</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
+    <row r="256" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
         <v>40914</v>
       </c>
@@ -2460,7 +2473,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
+    <row r="257" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
         <v>40915</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
+    <row r="258" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
         <v>40916</v>
       </c>
@@ -2476,7 +2489,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
+    <row r="259" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
         <v>40917</v>
       </c>
@@ -2484,7 +2497,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
+    <row r="260" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
         <v>40918</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
+    <row r="261" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
         <v>40919</v>
       </c>
@@ -2500,7 +2513,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
+    <row r="262" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
         <v>40920</v>
       </c>
@@ -2508,7 +2521,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
+    <row r="263" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="3">
         <v>41275</v>
       </c>
@@ -2516,7 +2529,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
+    <row r="264" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
         <v>41276</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
+    <row r="265" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
         <v>41277</v>
       </c>
@@ -2532,15 +2545,15 @@
         <v>5.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
+    <row r="266" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
         <v>41278</v>
       </c>
       <c r="B266" s="4">
-        <v>4.77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="3">
         <v>41279</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
+    <row r="268" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
         <v>41280</v>
       </c>
@@ -2556,7 +2569,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
+    <row r="269" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
         <v>41281</v>
       </c>
@@ -2564,7 +2577,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
+    <row r="270" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
         <v>41282</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
+    <row r="271" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
         <v>41283</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
+    <row r="272" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
         <v>41284</v>
       </c>
@@ -2588,7 +2601,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
+    <row r="273" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="3">
         <v>41285</v>
       </c>
@@ -2596,7 +2609,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
+    <row r="274" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="3">
         <v>41286</v>
       </c>
@@ -2604,15 +2617,15 @@
         <v>6.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
+    <row r="275" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
         <v>41640</v>
       </c>
       <c r="B275" s="4">
-        <v>5.11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="3">
         <v>41641</v>
       </c>
@@ -2620,7 +2633,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
+    <row r="277" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
         <v>41642</v>
       </c>
@@ -2628,7 +2641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
+    <row r="278" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
         <v>41643</v>
       </c>
@@ -2636,7 +2649,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
+    <row r="279" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="3">
         <v>41644</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
+    <row r="280" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
         <v>41645</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
+    <row r="281" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
         <v>41646</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
+    <row r="282" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
         <v>41647</v>
       </c>
@@ -2668,7 +2681,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
+    <row r="283" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
         <v>41648</v>
       </c>
@@ -2676,7 +2689,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
+    <row r="284" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
         <v>41649</v>
       </c>
@@ -2684,7 +2697,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
+    <row r="285" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
         <v>41650</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
+    <row r="286" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
         <v>41651</v>
       </c>
@@ -2700,7 +2713,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
+    <row r="287" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
         <v>42005</v>
       </c>
@@ -2708,7 +2721,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
+    <row r="288" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="3">
         <v>42006</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>-2.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
+    <row r="289" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="3">
         <v>42007</v>
       </c>
@@ -2724,23 +2737,23 @@
         <v>-2.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
+    <row r="290" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="3">
         <v>42008</v>
       </c>
       <c r="B290" s="4">
-        <v>-2.43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
+        <v>-2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="3">
         <v>42009</v>
       </c>
       <c r="B291" s="4">
-        <v>-2.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
         <v>42010</v>
       </c>
@@ -2748,7 +2761,7 @@
         <v>-2.13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
+    <row r="293" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
         <v>42011</v>
       </c>
@@ -2756,15 +2769,15 @@
         <v>-4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
+    <row r="294" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
         <v>42012</v>
       </c>
       <c r="B294" s="4">
-        <v>-5.06</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
         <v>42013</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>-4.59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
+    <row r="296" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
         <v>42014</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
+    <row r="297" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
         <v>42015</v>
       </c>
@@ -2788,7 +2801,7 @@
         <v>-2.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
+    <row r="298" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
         <v>42016</v>
       </c>
@@ -2796,7 +2809,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
+    <row r="299" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
         <v>42370</v>
       </c>
@@ -2804,7 +2817,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
+    <row r="300" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="3">
         <v>42371</v>
       </c>
@@ -2812,7 +2825,7 @@
         <v>-0.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
+    <row r="301" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
         <v>42372</v>
       </c>
@@ -2820,7 +2833,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
+    <row r="302" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="3">
         <v>42373</v>
       </c>
@@ -2828,7 +2841,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
+    <row r="303" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
         <v>42374</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
+    <row r="304" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
         <v>42375</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
+    <row r="305" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
         <v>42376</v>
       </c>
@@ -2852,7 +2865,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
+    <row r="306" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
         <v>42377</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
+    <row r="307" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
         <v>42378</v>
       </c>
@@ -2868,7 +2881,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
+    <row r="308" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
         <v>42379</v>
       </c>
@@ -2876,7 +2889,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
+    <row r="309" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
         <v>42380</v>
       </c>
@@ -2884,7 +2897,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
+    <row r="310" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
         <v>42381</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
+    <row r="311" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
         <v>42736</v>
       </c>
@@ -2900,7 +2913,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
+    <row r="312" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
         <v>42737</v>
       </c>
@@ -2908,7 +2921,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
+    <row r="313" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
         <v>42738</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
+    <row r="314" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
         <v>42739</v>
       </c>
@@ -2924,15 +2937,15 @@
         <v>3.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
+    <row r="315" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
         <v>42740</v>
       </c>
       <c r="B315" s="4">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
         <v>42741</v>
       </c>
@@ -2940,7 +2953,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
+    <row r="317" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
         <v>42742</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
+    <row r="318" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
         <v>42743</v>
       </c>
@@ -2956,7 +2969,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
+    <row r="319" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
         <v>42744</v>
       </c>
@@ -2964,7 +2977,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
+    <row r="320" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
         <v>42745</v>
       </c>
@@ -2972,15 +2985,15 @@
         <v>3.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
+    <row r="321" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
         <v>42746</v>
       </c>
       <c r="B321" s="4">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
         <v>42747</v>
       </c>
@@ -2988,7 +3001,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
+    <row r="323" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
         <v>43101</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
+    <row r="324" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
         <v>43102</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
+    <row r="325" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
         <v>43103</v>
       </c>
@@ -3012,7 +3025,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
+    <row r="326" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>43104</v>
       </c>
@@ -3020,7 +3033,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
+    <row r="327" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
         <v>43105</v>
       </c>
@@ -3028,7 +3041,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
+    <row r="328" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="3">
         <v>43106</v>
       </c>
@@ -3036,7 +3049,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
+    <row r="329" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
         <v>43107</v>
       </c>
@@ -3044,7 +3057,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
+    <row r="330" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
         <v>43108</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
+    <row r="331" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
         <v>43109</v>
       </c>
@@ -3060,7 +3073,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
+    <row r="332" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
         <v>43110</v>
       </c>
@@ -3068,7 +3081,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
+    <row r="333" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
         <v>43111</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
+    <row r="334" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
         <v>43112</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
+    <row r="335" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
         <v>43466</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
+    <row r="336" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
         <v>43467</v>
       </c>
@@ -3100,7 +3113,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
+    <row r="337" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
         <v>43468</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
+    <row r="338" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
         <v>43469</v>
       </c>
@@ -3116,7 +3129,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
+    <row r="339" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
         <v>43470</v>
       </c>
@@ -3124,7 +3137,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
+    <row r="340" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
         <v>43471</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
+    <row r="341" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
         <v>43472</v>
       </c>
@@ -3140,7 +3153,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
+    <row r="342" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
         <v>43473</v>
       </c>
@@ -3148,7 +3161,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
+    <row r="343" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
         <v>43474</v>
       </c>
@@ -3156,7 +3169,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
+    <row r="344" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
         <v>43475</v>
       </c>
@@ -3164,15 +3177,15 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
+    <row r="345" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
         <v>43476</v>
       </c>
       <c r="B345" s="4">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
         <v>43477</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
+    <row r="347" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
         <v>43831</v>
       </c>
@@ -3188,15 +3201,15 @@
         <v>3.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
+    <row r="348" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="3">
         <v>43832</v>
       </c>
       <c r="B348" s="4">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="3">
         <v>43833</v>
       </c>
@@ -3204,7 +3217,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
+    <row r="350" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="3">
         <v>43834</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>-1.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
+    <row r="351" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="3">
         <v>43835</v>
       </c>
@@ -3220,7 +3233,7 @@
         <v>-3.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
+    <row r="352" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="3">
         <v>43836</v>
       </c>
@@ -3228,7 +3241,7 @@
         <v>-1.81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
+    <row r="353" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="3">
         <v>43837</v>
       </c>
@@ -3236,7 +3249,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
+    <row r="354" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="3">
         <v>43838</v>
       </c>
@@ -3244,7 +3257,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
+    <row r="355" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="3">
         <v>43839</v>
       </c>
@@ -3252,7 +3265,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
+    <row r="356" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="3">
         <v>43840</v>
       </c>
@@ -3260,7 +3273,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
+    <row r="357" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="3">
         <v>43841</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
+    <row r="358" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="3">
         <v>43842</v>
       </c>
@@ -3276,15 +3289,15 @@
         <v>1.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
+    <row r="359" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="3">
         <v>44197</v>
       </c>
       <c r="B359" s="4">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="3">
         <v>44198</v>
       </c>
@@ -3292,7 +3305,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
+    <row r="361" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="3">
         <v>44199</v>
       </c>
@@ -3300,7 +3313,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
+    <row r="362" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="3">
         <v>44200</v>
       </c>
@@ -3308,7 +3321,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
+    <row r="363" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="3">
         <v>44201</v>
       </c>
@@ -3316,7 +3329,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
+    <row r="364" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="3">
         <v>44202</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
+    <row r="365" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="3">
         <v>44203</v>
       </c>
@@ -3332,7 +3345,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
+    <row r="366" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="3">
         <v>44204</v>
       </c>
@@ -3340,7 +3353,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
+    <row r="367" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="3">
         <v>44205</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
+    <row r="368" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="3">
         <v>44206</v>
       </c>
@@ -3356,7 +3369,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
+    <row r="369" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="3">
         <v>44207</v>
       </c>
@@ -3364,7 +3377,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
+    <row r="370" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="3">
         <v>44208</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
+    <row r="371" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="3">
         <v>44562</v>
       </c>
@@ -3380,7 +3393,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
+    <row r="372" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="3">
         <v>44563</v>
       </c>
@@ -3388,7 +3401,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
+    <row r="373" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="3">
         <v>44564</v>
       </c>
@@ -3396,7 +3409,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
+    <row r="374" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="3">
         <v>44565</v>
       </c>
@@ -3404,7 +3417,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
+    <row r="375" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="3">
         <v>44566</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
+    <row r="376" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="3">
         <v>44567</v>
       </c>
